--- a/ExcelDataSerializerConsole/Excel/Tile_Placement.xlsx
+++ b/ExcelDataSerializerConsole/Excel/Tile_Placement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0360SJH\Documents\billionaire_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\ExcelDataSerializer\ExcelDataSerializerConsole\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997AF6E3-35EF-470D-9CEB-AA25074EEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E7375-9218-49A8-8460-976A04E0A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A0F3F057-A5BC-498D-997C-B1FB335CF8F0}"/>
+    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28320" xr2:uid="{A0F3F057-A5BC-498D-997C-B1FB335CF8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tile_Placement" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,232 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>0354KJH</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6A839476-F909-48C1-8BB0-F1E00DD1A37A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Primary/int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6DA9B5F2-D0F0-47B8-8F52-1F5A75F185B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2CFA01C0-90EA-4A85-836C-092324D770AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{45100FC4-EF53-4960-949F-68B7FD4C4D0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E6446325-30ED-4D90-8D54-8F387ED5D4DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3E989D91-AF1B-45A3-9530-B21E52493D2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{440FE58D-0554-47E7-9FD7-09E5985A38EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Array/int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B96FB22B-F634-4893-B6DE-FE802AB039EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+int</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0CE2379C-14E2-4A9C-8E58-B4A603E2A844}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0354KJH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Array/int</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +428,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -419,6 +658,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,12 +960,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C7847-696F-4B2C-A3D3-B80C07B8E6F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C7847-696F-4B2C-A3D3-B80C07B8E6F5}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4527,5 +4770,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelDataSerializerConsole/Excel/Tile_Placement.xlsx
+++ b/ExcelDataSerializerConsole/Excel/Tile_Placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\ExcelDataSerializer\ExcelDataSerializerConsole\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E7375-9218-49A8-8460-976A04E0A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7432E-70A4-4540-8924-01FC73710099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6150" windowWidth="16440" windowHeight="28320" xr2:uid="{A0F3F057-A5BC-498D-997C-B1FB335CF8F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0F3F057-A5BC-498D-997C-B1FB335CF8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tile_Placement" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Array/int</t>
+int</t>
         </r>
       </text>
     </comment>
@@ -253,7 +253,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Array/int</t>
+int</t>
         </r>
       </text>
     </comment>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>Move_Tile_ID</t>
-  </si>
-  <si>
-    <t>Move_Value</t>
   </si>
   <si>
     <t>Property_Tile_ID</t>
@@ -384,6 +381,14 @@
   </si>
   <si>
     <t>[37]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -963,9 +968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C7847-696F-4B2C-A3D3-B80C07B8E6F5}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1005,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1038,7 +1043,7 @@
         <v>201</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="9">
         <v>0</v>
@@ -1050,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>5</v>
@@ -1080,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7">
         <v>2</v>
@@ -1098,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1122,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
@@ -1130,6 +1135,9 @@
       <c r="J4" s="7">
         <v>11</v>
       </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="5">
         <v>2</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1164,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -1182,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1206,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -1224,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1248,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="16">
         <v>2</v>
@@ -1266,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1290,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
         <v>2</v>
@@ -1308,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1332,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
@@ -1350,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1374,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -1392,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1416,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
@@ -1434,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1458,7 +1466,7 @@
         <v>201</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -1488,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
@@ -1518,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
@@ -1548,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
@@ -1578,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
         <v>2</v>
@@ -1608,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
         <v>2</v>
@@ -1638,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
         <v>2</v>
@@ -1668,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
         <v>2</v>
@@ -1698,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7">
         <v>2</v>
@@ -1728,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7">
         <v>2</v>
@@ -1758,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
         <v>2</v>
@@ -1788,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
         <v>2</v>
@@ -1818,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
         <v>2</v>
@@ -1848,7 +1856,7 @@
         <v>204</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
         <v>2</v>
@@ -1878,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="7">
         <v>2</v>
@@ -1908,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
         <v>2</v>
@@ -1938,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="7">
         <v>2</v>
@@ -1968,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7">
         <v>2</v>
@@ -1998,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="17">
         <v>4</v>
@@ -2028,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="7">
         <v>2</v>
@@ -2058,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="7">
         <v>2</v>
@@ -2088,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="7">
         <v>2</v>
@@ -2118,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="7">
         <v>2</v>
@@ -2148,7 +2156,7 @@
         <v>204</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" s="7">
         <v>2</v>
@@ -2178,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="7">
         <v>2</v>
@@ -2208,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="7">
         <v>2</v>
@@ -2238,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="7">
         <v>2</v>
@@ -2268,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
@@ -2298,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="7">
         <v>2</v>
@@ -2328,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="7">
         <v>2</v>
@@ -2358,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="7">
         <v>2</v>
@@ -2388,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="7">
         <v>2</v>
@@ -2418,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="7">
         <v>6</v>
@@ -2448,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="7">
         <v>2</v>
@@ -2478,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="7">
         <v>2</v>
@@ -2508,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="7">
         <v>2</v>
@@ -2538,7 +2546,7 @@
         <v>201</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9">
         <v>0</v>
@@ -2568,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="7">
         <v>2</v>
@@ -2598,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" s="7">
         <v>2</v>
@@ -2628,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="7">
         <v>2</v>
@@ -2658,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="7">
         <v>2</v>
@@ -2688,7 +2696,7 @@
         <v>204</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="7">
         <v>2</v>
@@ -2718,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="7">
         <v>6</v>
@@ -2748,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="7">
         <v>2</v>
@@ -2778,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" s="7">
         <v>2</v>
@@ -2808,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" s="7">
         <v>2</v>
@@ -2838,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" s="12">
         <v>1</v>
@@ -2868,7 +2876,7 @@
         <v>201</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9">
         <v>0</v>
@@ -2898,7 +2906,7 @@
         <v>201</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9">
         <v>0</v>
@@ -2928,7 +2936,7 @@
         <v>201</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
@@ -2958,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" s="7">
         <v>2</v>
@@ -2988,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63" s="7">
         <v>2</v>
@@ -3018,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64" s="7">
         <v>2</v>
@@ -3048,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" s="7">
         <v>2</v>
@@ -3078,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="7">
         <v>2</v>
@@ -3108,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" s="7">
         <v>2</v>
@@ -3138,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" s="7">
         <v>2</v>
@@ -3168,7 +3176,7 @@
         <v>201</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9">
         <v>0</v>
@@ -3198,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70" s="7">
         <v>2</v>
@@ -3228,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" s="7">
         <v>2</v>
@@ -3258,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I72" s="7">
         <v>2</v>
@@ -3288,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I73" s="7">
         <v>2</v>
@@ -3318,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" s="7">
         <v>2</v>
@@ -3348,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" s="7">
         <v>2</v>
@@ -3378,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I76" s="7">
         <v>2</v>
@@ -3408,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" s="7">
         <v>2</v>
@@ -3438,7 +3446,7 @@
         <v>203</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I78" s="10">
         <v>0</v>
@@ -3468,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" s="7">
         <v>2</v>
@@ -3498,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I80" s="7">
         <v>2</v>
@@ -3528,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I81" s="7">
         <v>2</v>
@@ -3558,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="7">
         <v>2</v>
@@ -3588,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="7">
         <v>2</v>
@@ -3618,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" s="7">
         <v>2</v>
@@ -3648,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" s="7">
         <v>2</v>
@@ -3678,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86" s="7">
         <v>2</v>
@@ -3708,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87" s="7">
         <v>2</v>
@@ -3738,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" s="7">
         <v>2</v>
@@ -3768,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" s="7">
         <v>2</v>
@@ -3798,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I90" s="7">
         <v>2</v>
@@ -3828,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I91" s="7">
         <v>2</v>
@@ -3858,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I92" s="7">
         <v>2</v>
@@ -3888,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I93" s="7">
         <v>2</v>
@@ -3918,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" s="7">
         <v>2</v>
@@ -3948,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I95" s="7">
         <v>2</v>
@@ -3978,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I96" s="7">
         <v>2</v>
@@ -4008,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I97" s="7">
         <v>2</v>
@@ -4038,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I98" s="7">
         <v>2</v>
@@ -4068,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I99" s="7">
         <v>2</v>
@@ -4098,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I100" s="7">
         <v>2</v>
@@ -4128,7 +4136,7 @@
         <v>203</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I101" s="15">
         <v>0</v>
@@ -4158,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102" s="7">
         <v>2</v>
@@ -4188,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I103" s="7">
         <v>2</v>
@@ -4218,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I104" s="7">
         <v>2</v>
@@ -4248,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" s="7">
         <v>2</v>
@@ -4278,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I106" s="7">
         <v>2</v>
@@ -4308,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I107" s="7">
         <v>2</v>
@@ -4338,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" s="7">
         <v>2</v>
@@ -4368,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I109" s="7">
         <v>2</v>
@@ -4398,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I110" s="7">
         <v>2</v>
@@ -4428,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111" s="7">
         <v>2</v>
@@ -4458,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I112" s="7">
         <v>2</v>
@@ -4488,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I113" s="7">
         <v>2</v>
@@ -4518,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I114" s="7">
         <v>2</v>
@@ -4548,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I115" s="7">
         <v>2</v>
@@ -4578,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I116" s="7">
         <v>2</v>
@@ -4608,7 +4616,7 @@
         <v>201</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9">
         <v>0</v>
@@ -4638,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I118" s="7">
         <v>2</v>
@@ -4668,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I119" s="7">
         <v>2</v>
@@ -4698,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I120" s="7">
         <v>2</v>
@@ -4728,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I121" s="7">
         <v>2</v>
@@ -4758,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I122" s="7">
         <v>2</v>
